--- a/biology/Botanique/Cyanidiaceae/Cyanidiaceae.xlsx
+++ b/biology/Botanique/Cyanidiaceae/Cyanidiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyanidiacées
 La famille des Cyanidiaceae (ou Cyanidiacées) est une famille d’algues rouges unicellulaires de l’ordre des Cyanidiales.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Cyanidium, dérivé de  κύανος / kýanos, bleu, et du diminutif "-ίδιον" / "-idiom" (du grec ειδψ / eidon, « avoir l'air de »), littéralement « ressemblant à du bleu », en référence à la pigmentation majoritairement bleue, bien qu'elle soit classée dans les algues rouges, de cette algue extrêmophile[note 1].
 </t>
@@ -543,17 +557,19 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (3 août 2013)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (3 août 2013) :
 Cyanidioschyzon P.De Luca, R.Taddei &amp; L.Varano
 Cyanidium Geitler
 Pluto J.J.Copeland
-Selon NCBI  (3 août 2013)[2] :
+Selon NCBI  (3 août 2013) :
 Cyanidioschyzon
 Cyanidium
 Galdieria
-Selon World Register of Marine Species                               (3 août 2013)[3] :
+Selon World Register of Marine Species                               (3 août 2013) :
 Cyanidioschyzon P.De Luca, R.Taddei &amp; L.Varano, 1978
 Cyanidium Geitler, 1933
 Pluto J.J.Copeland, 1936
